--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value40.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value40.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6736504157468043</v>
+        <v>1.78359043598175</v>
       </c>
       <c r="B1">
-        <v>0.8185818039532216</v>
+        <v>2.168114185333252</v>
       </c>
       <c r="C1">
-        <v>1.119807383598503</v>
+        <v>2.912564039230347</v>
       </c>
       <c r="D1">
-        <v>2.809735648917629</v>
+        <v>6.001596450805664</v>
       </c>
       <c r="E1">
-        <v>3.460799511253515</v>
+        <v>2.923346281051636</v>
       </c>
     </row>
   </sheetData>
